--- a/tables/linewidth_params.xlsx
+++ b/tables/linewidth_params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsamsonov/GitHub/gen-course/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649CEBB9-4BAB-8347-B214-2603C0539B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3097F9-9894-F744-AA2B-B0DCAD34A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11480" yWindow="5400" windowWidth="28240" windowHeight="17560" xr2:uid="{1738169C-1450-C642-865D-D71FEB1F0AA6}"/>
   </bookViews>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Класс</t>
   </si>
   <si>
     <t>Толщина линии</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>tertiary</t>
   </si>
 </sst>
 </file>
@@ -403,12 +412,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,24 +430,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
